--- a/assets/grades.xlsx
+++ b/assets/grades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/web-template/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/F24/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC33E7C1-E423-4F46-8E94-459A495D53D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAFD6CE-49D4-D347-9C3B-8E58876D01D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{4582E4CD-5465-DD4C-9E97-41DC8F65BFAB}"/>
+    <workbookView xWindow="30040" yWindow="640" windowWidth="31240" windowHeight="18640" xr2:uid="{4582E4CD-5465-DD4C-9E97-41DC8F65BFAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Assignment</t>
   </si>
@@ -50,10 +50,13 @@
     <t>Final Project</t>
   </si>
   <si>
-    <t>In-Class</t>
+    <t>Vis in the Wild</t>
   </si>
   <si>
-    <t>Quizzes</t>
+    <t>Reflections</t>
+  </si>
+  <si>
+    <t>Participation</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,111 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-79A8-4646-9661-AFBC46A24EEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5509648203845637E-2"/>
+                  <c:y val="2.8263308066273987E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A487-F644-88C2-8C244AA3AD27}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.396242100638708E-2"/>
+                  <c:y val="-2.7465007776049766E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A487-F644-88C2-8C244AA3AD27}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7750903991078373E-2"/>
+                  <c:y val="-8.5123008535286121E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A487-F644-88C2-8C244AA3AD27}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.6376195464837281E-2"/>
+                  <c:y val="2.8652233012086553E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-A487-F644-88C2-8C244AA3AD27}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -227,7 +334,7 @@
                 <a:pPr>
                   <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -264,41 +371,47 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$5:$B$8</c:f>
+              <c:f>Sheet1!$B$5:$B$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Homeworks</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Quizzes</c:v>
+                  <c:v>Vis in the Wild</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>In-Class</c:v>
+                  <c:v>Reflections</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Final Project</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Participation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$8</c:f>
+              <c:f>Sheet1!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,16 +1048,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1157,15 +1270,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00E9686-A9DF-CD48-B752-3B95B96126E1}">
-  <dimension ref="B4:C9"/>
+  <dimension ref="B4:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -1181,23 +1294,23 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
@@ -1209,8 +1322,16 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
       <c r="C9">
-        <f>SUM(C5:C8)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f>SUM(C5:C9)</f>
         <v>100</v>
       </c>
     </row>

--- a/assets/grades.xlsx
+++ b/assets/grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/F24/SDS-CS109/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/teaching/F24/SDS-CS109/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAFD6CE-49D4-D347-9C3B-8E58876D01D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD4466-E79E-E640-9E6E-CBBAE6D27A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30040" yWindow="640" windowWidth="31240" windowHeight="18640" xr2:uid="{4582E4CD-5465-DD4C-9E97-41DC8F65BFAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Assignment</t>
   </si>
@@ -50,13 +50,10 @@
     <t>Final Project</t>
   </si>
   <si>
-    <t>Vis in the Wild</t>
+    <t>Participation</t>
   </si>
   <si>
-    <t>Reflections</t>
-  </si>
-  <si>
-    <t>Participation</t>
+    <t>Mid-semester Project</t>
   </si>
 </sst>
 </file>
@@ -213,26 +210,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-79A8-4646-9661-AFBC46A24EEA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -259,8 +236,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.396242100638708E-2"/>
-                  <c:y val="-2.7465007776049766E-2"/>
+                  <c:x val="0.17347296777776203"/>
+                  <c:y val="-1.3753672581973124E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -280,8 +257,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.7750903991078373E-2"/>
-                  <c:y val="-8.5123008535286121E-2"/>
+                  <c:x val="-2.6376195464837281E-2"/>
+                  <c:y val="2.8652233012086553E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -301,8 +278,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.6376195464837281E-2"/>
-                  <c:y val="2.8652233012086553E-2"/>
+                  <c:x val="-6.3531986076847694E-2"/>
+                  <c:y val="7.7492496452297527E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -371,22 +348,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$5:$B$9</c:f>
+              <c:f>Sheet1!$B$5:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Homeworks</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Vis in the Wild</c:v>
+                  <c:v>Mid-semester Project</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Reflections</c:v>
+                  <c:v>Final Project</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Final Project</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Participation</c:v>
                 </c:pt>
               </c:strCache>
@@ -394,24 +368,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$9</c:f>
+              <c:f>Sheet1!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,16 +1019,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1270,15 +1241,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00E9686-A9DF-CD48-B752-3B95B96126E1}">
-  <dimension ref="B4:C10"/>
+  <dimension ref="B4:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -1299,39 +1270,31 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
       <c r="C9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <f>SUM(C5:C9)</f>
+        <f>SUM(C5:C8)</f>
         <v>100</v>
       </c>
     </row>
